--- a/medicine/Enfance/Diélette_(écrivain)/Diélette_(écrivain).xlsx
+++ b/medicine/Enfance/Diélette_(écrivain)/Diélette_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Di%C3%A9lette_(%C3%A9crivain)</t>
+          <t>Diélette_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diélette est le pseudonyme collectif des romancières Yvonne Girault et Yette Jeandet, qui écrivent également sous le pseudonyme collectif Anne Clairac. Diélette a principalement écrit des romans sentimentaux et quelques titres pour la jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Di%C3%A9lette_(%C3%A9crivain)</t>
+          <t>Diélette_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Note : Liste non exhaustive. La première date est celle de la première édition.
-Romans sentimentaux
-1939 : Le Destin de Paméla - Éditions J. Tallandier, collection « Les Sept Couleurs Tallandier ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note : Liste non exhaustive. La première date est celle de la première édition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Diélette_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Di%C3%A9lette_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Romans sentimentaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1939 : Le Destin de Paméla - Éditions J. Tallandier, collection « Les Sept Couleurs Tallandier ».
 1953 : Paméla des îles - Éditions Tallandier, coll. Les Sept Couleurs Tallandier. Illustrations de Jacques Berger.
 1956 : Chanson d’Écosse - Éditions Flammarion, coll. Cœurs no 27.
 1956 : Le Collier d'étoiles - Éditions Gautier-Languereau.
@@ -535,12 +584,80 @@
 1964 : Le Relais de l'Empereur - Éditions Magnard. Illustrations de Michel Gourlier.
 1964 : Fleurs d’Écosse - Éditions Gautier-Languereau, Bibliothèque de Suzette. Illustrations de Georges Pichard.
 1965 : La Pierre en forme d'étoile - Éditions Gautier-Languereau, coll. Bibliothèque bleue no . Illustrations de Georges Pichard.
-1973 : Le Petit Paradis - Éditions J'ai lu no D3.
-Revues
-Les Veillées no 282 : le roman Feu de Bengale a paru dans cette revue en 1960.
-Romans pour la jeunesse
-1956 : Babette et le Roi soleil Éditions Gautier-Languereau, Nouvelle Bibliothèque de Suzette. Illustrations de Paul Durand. 
-1956 : Laurette et la Fille des pharaons Éditions Hachette, coll. Idéal-Bibliothèque no 122. Illustrations d'Albert Chazelle. Grand Prix du Salon de l'Enfance (1956)[1].
+1973 : Le Petit Paradis - Éditions J'ai lu no D3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diélette_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Di%C3%A9lette_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Revues</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Veillées no 282 : le roman Feu de Bengale a paru dans cette revue en 1960.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diélette_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Di%C3%A9lette_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1956 : Babette et le Roi soleil Éditions Gautier-Languereau, Nouvelle Bibliothèque de Suzette. Illustrations de Paul Durand. 
+1956 : Laurette et la Fille des pharaons Éditions Hachette, coll. Idéal-Bibliothèque no 122. Illustrations d'Albert Chazelle. Grand Prix du Salon de l'Enfance (1956).
 Résumé : Quand on vit à une époque aussi passionnante que celle des guerres de la Révolution, on ne se laisse pas enfermer dans une pension, serait-ce même la célèbre institution de Mme Campan ! C'est du moins ce qu'a décidé Laurette qui, malgré ses treize ans, est aussi fière, aussi indépendante et hardie que peut l'être une descendante de la noble famille de Puyréal. Alban de Puyréal, frère de Laurette, est officier dans l'armée de Bonaparte. L'expédition d'Égypte va partir, Alban y participe, et Laurette forme le projet d'accompagner son frère. En dépit des consignes d'Alban, et de l'ordre formel du général Bonaparte, la fillette réussit à s'embarquer sur le vaisseau amiral ! Laurette est toute à la joie de sa traversée clandestine. Elle aurait peut-être le cœur moins léger si elle pouvait prévoir les terrifiantes aventures qui l'attendent au pays des Pyramides... Au Caire, la jeune Puyréal va se lier d'amitié avec Mahiten, descendante authentique des anciens Pharaons. Mais le cheik Sadah, oncle de Mahiten, joue un jeu inquiétant... Derrière le décor éclatant de l'épopée d'Égypte, la trahison, la révolte, l'assassinat se préparent. Pour éviter les pires catastrophes, Laurette et Mahiten vont unir leurs efforts...
 1957 : Norah joue et gagne Éditions Hachette, coll. Idéal-Bibliothèque no 133. Illustrations de François Batet.
 Résumé : Mystérieuse histoire, dont les nombreux rebondissements nous entraînent du Jardin des plantes à la lointaine et fascinante Éthiopie. Trois adolescents : Norah, Françoise et leur jeune ami, le métis Gabré, veulent découvrir où est, et ce qu'est, l'énigmatique « trésor » que le professeur Dupecq, bisaïeul de Françoise, aurait découvert en Éthiopie et confié à des indigènes, alors qu'il parcourait l'Afrique avec une des expéditions de chasse du duc d'Orléans. Aucune trace ne subsiste du trésor, sinon une singulière comptine dont les termes imprécis sont susceptibles de plusieurs interprétations. Les jeunes gens, ballottés de l'une à l'autre, s'engagent avec enthousiasme dans des chemins qui aboutissent à autant d'impasses. Découvriront-ils enfin le sens réel de la comptine mystérieuse ? Les mènera-t-il à la découverte d'un trésor? et que sera celui-ci, si toutefois il existe ailleurs que dans leur imagination ?
@@ -548,11 +665,79 @@
 Résumé : Professeur au Muséum de Paris, M. Troisfontaines organise une exposition sur le naturaliste Buffon et recherche un célèbre automate, appelé Le Charmeur d'Oiseaux, jadis offert par Buffon à sa filleule Angélina, objet précieux dont on a perdu la trace pendant la Révolution française. Norah Troisfontaines, qui aide son père dans ses travaux, suit la piste de l'automate jusqu'au château anglais de Lochmore où elle retrouve les traces du séjour d'Angélina pendant la Révolution. Portrait, médaillon, journal passionnent sa recherche, mais ne la mènent pas au dénouement espéré. Soudain Norah se trouve, à Lochmore, en face d'un personnage inattendu : Tracy, ex-secrétaire de son père. Aidée de ses amis anglais, Iris et Laurie, de ses amis François, Françoise et Jean-Pierre, du jeune métis abyssin Gabré, Norah, piquée au jeu, redouble d'efforts. Mais en cherchant le secret de l'automate perdu, elle en découvre un autre, plus troublant : celui du drame qui pèse sur la vie et le cœur de Tracy. Norah, bouleversée, touche à la victoire et se prend à souhaiter ardemment sa propre défaite. Comment se terminera cette passionnante course au trésor ?
 1958 : Florence mène le jeu  Éditions Hachette, coll. Idéal-Bibliothèque no 156. Illustrations d'Albert Chazelle.
 Résumé : Florence et les enfants de "l’équipe" sont très inquiets. Hier ils ont découvert dans le pavillon secret d'un jardin abandonné un manuscrit portant la mention « brouillon à déchirer ». Ils se sont donc partagé entre eux ses feuilles roses. Mais voilà qu'aujourd'hui arrive un télégramme de l'auteur qui réclame d'urgence son manuscrit. Catastrophe ! Florence, la hardie meneuse de jeu, ne se laisse pas décourager. Elle s'élance à la reconquête des feuilles roses qui entraîneront dans des péripéties inattendues tous les membres de l'équipe : Eric le rêveur, la gitane Maria del Pilar, les fillettes blondes du Grand Bazar, les trois "filles-fleur" de la Martinique, N'Guyen le jeune Vietnamien, et Maurice et Jean-Bernard, et jusqu'au redoutable Pierrot-Dents-de-Loup... 
-1960 : Claire au Tibet   Éditions Desclée de Brouwer, coll. Belle Humeur no 83. Illustrations de Guy Michel.
-Revues pour la jeunesse
-1957 : La Semaine de Suzette no 43 : Trois Enfants "Les M.P.A" - Grandes Inventions : La T.S.F. - L'ennuyeux Village (Clara) - Le Secret de l'automate. (revue pour la jeunesse).
-Romans pour tout public
-Collection « Série 15 » aux éditions Gautier-Languereau [2]:
+1960 : Claire au Tibet   Éditions Desclée de Brouwer, coll. Belle Humeur no 83. Illustrations de Guy Michel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diélette_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Di%C3%A9lette_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Revues pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1957 : La Semaine de Suzette no 43 : Trois Enfants "Les M.P.A" - Grandes Inventions : La T.S.F. - L'ennuyeux Village (Clara) - Le Secret de l'automate. (revue pour la jeunesse).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diélette_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Di%C3%A9lette_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans pour tout public</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Collection « Série 15 » aux éditions Gautier-Languereau :
 1949 : 15 Histoires de bêtes sauvages.
 1961 : 15 Grandes Explorations.
 1965 : 15 Aventures historiques. Illustrations de Georges Pichard.
